--- a/Insumos.xlsx
+++ b/Insumos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Desktop\formulario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC9C4D7-C19E-406C-91F7-DB6ECA5E4B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E065D19-0EE3-4AE6-8FA4-79E43ADBCA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6360" windowWidth="29040" windowHeight="15720" xr2:uid="{D0464B66-1327-441A-BC0B-79C1075B3A87}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0464B66-1327-441A-BC0B-79C1075B3A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11534" uniqueCount="7681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11537" uniqueCount="7683">
   <si>
     <t>Unidade</t>
   </si>
@@ -23082,6 +23082,12 @@
   </si>
   <si>
     <t>Máximo</t>
+  </si>
+  <si>
+    <t>FITA CREPE LARANJA 45 MM X  50M</t>
+  </si>
+  <si>
+    <t>E.02.0012</t>
   </si>
 </sst>
 </file>
@@ -23469,7 +23475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32D2B19-46D2-47DB-8479-E6FC0B3CCBCE}">
-  <dimension ref="A1:E3844"/>
+  <dimension ref="A1:E3845"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -66522,6 +66528,17 @@
         <v>31</v>
       </c>
     </row>
+    <row r="3845" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3845" t="s">
+        <v>7682</v>
+      </c>
+      <c r="B3845" t="s">
+        <v>7681</v>
+      </c>
+      <c r="C3845" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Insumos.xlsx
+++ b/Insumos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Desktop\formulario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DAC1EC-3A71-4423-8FD2-29FFDF0DC6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0CBCBE-3EFC-4A2B-8261-1FA5C25018E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0464B66-1327-441A-BC0B-79C1075B3A87}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11039" uniqueCount="7317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11042" uniqueCount="7319">
   <si>
     <t>Unidade</t>
   </si>
@@ -21990,6 +21990,12 @@
   </si>
   <si>
     <t>CHAPA PLASTIFICADO 12 MM - 2,44 X 1,22 M</t>
+  </si>
+  <si>
+    <t>D.01.0031</t>
+  </si>
+  <si>
+    <t>MESA DOBRAVEL</t>
   </si>
 </sst>
 </file>
@@ -22387,9 +22393,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32D2B19-46D2-47DB-8479-E6FC0B3CCBCE}">
-  <dimension ref="A1:E3679"/>
+  <dimension ref="A1:E3680"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3658" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3681" sqref="C3681"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -63625,6 +63633,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3680" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3680" t="s">
+        <v>7317</v>
+      </c>
+      <c r="B3680" t="s">
+        <v>7318</v>
+      </c>
+      <c r="C3680" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Insumos.xlsx
+++ b/Insumos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Desktop\formulario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60360BBE-371A-4885-9EF9-DAD90AB9D2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F352D48-4D1E-4695-9F9B-08D720FF1981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0464B66-1327-441A-BC0B-79C1075B3A87}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$3668</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$3637</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10913" uniqueCount="7275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10916" uniqueCount="7277">
   <si>
     <t>Unidade</t>
   </si>
@@ -21864,6 +21864,12 @@
   </si>
   <si>
     <t>CHAPA PLASTIFICADO 12 MM - 2,44 X 1,22 M</t>
+  </si>
+  <si>
+    <t>R.02.0037</t>
+  </si>
+  <si>
+    <t>MASSA REGULARIZADORA TEXTURA</t>
   </si>
 </sst>
 </file>
@@ -22261,7 +22267,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32D2B19-46D2-47DB-8479-E6FC0B3CCBCE}">
-  <dimension ref="A1:E3637"/>
+  <dimension ref="A1:E3638"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -63038,6 +63044,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3638" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3638" t="s">
+        <v>7275</v>
+      </c>
+      <c r="B3638" t="s">
+        <v>7276</v>
+      </c>
+      <c r="C3638" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Insumos.xlsx
+++ b/Insumos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Desktop\Formulario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41C0F77-858C-48FA-9C11-4156667C9BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750158B1-9153-47F7-AF23-00B3B673BBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4950" windowWidth="29040" windowHeight="15720" xr2:uid="{D0464B66-1327-441A-BC0B-79C1075B3A87}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0464B66-1327-441A-BC0B-79C1075B3A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10910" uniqueCount="7273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10913" uniqueCount="7275">
   <si>
     <t>Unidade</t>
   </si>
@@ -21858,13 +21858,19 @@
   </si>
   <si>
     <t>CABO FLEXÍVEL PP - 750 V - 2 X 1 MM²</t>
+  </si>
+  <si>
+    <t>N.13.0101</t>
+  </si>
+  <si>
+    <t>REVESTIMENTO MINERAL AURONZO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -21884,6 +21890,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -21913,13 +21927,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -22255,9 +22270,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32D2B19-46D2-47DB-8479-E6FC0B3CCBCE}">
-  <dimension ref="A1:E3636"/>
+  <dimension ref="A1:E3637"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3621" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3637" sqref="A3637"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -63021,7 +63038,19 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3637" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3637" s="4" t="s">
+        <v>7273</v>
+      </c>
+      <c r="B3637" t="s">
+        <v>7274</v>
+      </c>
+      <c r="C3637" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Insumos.xlsx
+++ b/Insumos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Desktop\Formulario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750158B1-9153-47F7-AF23-00B3B673BBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F156EEE-9646-4F58-AF99-1A83B1BA2BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0464B66-1327-441A-BC0B-79C1075B3A87}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10913" uniqueCount="7275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10916" uniqueCount="7277">
   <si>
     <t>Unidade</t>
   </si>
@@ -21864,13 +21864,19 @@
   </si>
   <si>
     <t>REVESTIMENTO MINERAL AURONZO</t>
+  </si>
+  <si>
+    <t>K.01.1772</t>
+  </si>
+  <si>
+    <t>ESPELHO DE PISO 4X2 PARA 2 RJ 45-11 - CROMADO - METAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -21890,14 +21896,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -21927,14 +21925,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -22270,10 +22267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32D2B19-46D2-47DB-8479-E6FC0B3CCBCE}">
-  <dimension ref="A1:E3637"/>
+  <dimension ref="A1:E3638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3621" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3637" sqref="A3637"/>
+    <sheetView tabSelected="1" topLeftCell="A3623" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3638" sqref="A3638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -63039,13 +63036,24 @@
       </c>
     </row>
     <row r="3637" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3637" s="4" t="s">
+      <c r="A3637" t="s">
         <v>7273</v>
       </c>
       <c r="B3637" t="s">
         <v>7274</v>
       </c>
       <c r="C3637" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3638" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3638" t="s">
+        <v>7275</v>
+      </c>
+      <c r="B3638" t="s">
+        <v>7276</v>
+      </c>
+      <c r="C3638" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Insumos.xlsx
+++ b/Insumos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osborne1-my.sharepoint.com/personal/matheus_almeida_osborne_com_br/Documents/Área de Trabalho/Formulario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{B1C9BEE0-D8AB-41A6-9B3F-41E286CEEEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D018DFC1-1F7B-472F-8B1A-545E5D028D3A}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{B1C9BEE0-D8AB-41A6-9B3F-41E286CEEEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD02F220-45E9-4AD3-92A7-C83CE3E3D7B0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4950" windowWidth="29040" windowHeight="15720" xr2:uid="{D0464B66-1327-441A-BC0B-79C1075B3A87}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0464B66-1327-441A-BC0B-79C1075B3A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="1605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="1607">
   <si>
     <t>Unidade</t>
   </si>
@@ -4854,6 +4854,12 @@
   </si>
   <si>
     <t>SAPATILHA  ( PANTUFA )</t>
+  </si>
+  <si>
+    <t>E.04.0418</t>
+  </si>
+  <si>
+    <t>TESOURA CORTA-FERRO (CORTA-VERGALHÃO) - 24''</t>
   </si>
 </sst>
 </file>
@@ -5268,7 +5274,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32D2B19-46D2-47DB-8479-E6FC0B3CCBCE}">
   <dimension ref="A1:E2354"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A780" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A794" sqref="A794"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14759,6 +14767,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A794" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C794" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>

--- a/Insumos.xlsx
+++ b/Insumos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osborne1-my.sharepoint.com/personal/matheus_almeida_osborne_com_br/Documents/Área de Trabalho/Formulario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{B1C9BEE0-D8AB-41A6-9B3F-41E286CEEEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD02F220-45E9-4AD3-92A7-C83CE3E3D7B0}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{B1C9BEE0-D8AB-41A6-9B3F-41E286CEEEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27F92C61-D6BA-4DDC-AD40-66802ED04BA3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0464B66-1327-441A-BC0B-79C1075B3A87}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="1609">
   <si>
     <t>Unidade</t>
   </si>
@@ -4860,6 +4860,12 @@
   </si>
   <si>
     <t>TESOURA CORTA-FERRO (CORTA-VERGALHÃO) - 24''</t>
+  </si>
+  <si>
+    <t>MEDIDOR TRENA A LASER</t>
+  </si>
+  <si>
+    <t>E.04.0185</t>
   </si>
 </sst>
 </file>
@@ -5274,8 +5280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32D2B19-46D2-47DB-8479-E6FC0B3CCBCE}">
   <dimension ref="A1:E2354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A780" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A794" sqref="A794"/>
+    <sheetView tabSelected="1" topLeftCell="A774" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B795" sqref="B795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14778,6 +14784,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A795" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C795" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>

--- a/Insumos.xlsx
+++ b/Insumos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osborne1-my.sharepoint.com/personal/matheus_almeida_osborne_com_br/Documents/Área de Trabalho/Formulario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{B1C9BEE0-D8AB-41A6-9B3F-41E286CEEEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27F92C61-D6BA-4DDC-AD40-66802ED04BA3}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{B1C9BEE0-D8AB-41A6-9B3F-41E286CEEEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53460F98-FECE-422E-BAB2-9DFBE2057A9C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0464B66-1327-441A-BC0B-79C1075B3A87}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="1609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="1611">
   <si>
     <t>Unidade</t>
   </si>
@@ -4866,6 +4866,12 @@
   </si>
   <si>
     <t>E.04.0185</t>
+  </si>
+  <si>
+    <t>SERROTE - 18''</t>
+  </si>
+  <si>
+    <t>E.04.0220</t>
   </si>
 </sst>
 </file>
@@ -5281,7 +5287,7 @@
   <dimension ref="A1:E2354"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A774" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B795" sqref="B795"/>
+      <selection activeCell="A797" sqref="A797"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14795,6 +14801,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A796" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C796" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>

--- a/Insumos.xlsx
+++ b/Insumos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osborne1-my.sharepoint.com/personal/matheus_almeida_osborne_com_br/Documents/Área de Trabalho/Formulario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{B1C9BEE0-D8AB-41A6-9B3F-41E286CEEEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EABF00BD-9561-4B6E-89C5-391BAF0CDA3A}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{B1C9BEE0-D8AB-41A6-9B3F-41E286CEEEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{972606F8-7CCF-49D1-AD91-103817DD5FB6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0464B66-1327-441A-BC0B-79C1075B3A87}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$3093</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$3082</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -18222,7 +18222,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32D2B19-46D2-47DB-8479-E6FC0B3CCBCE}">
   <dimension ref="A1:E2957"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -23424,10 +23426,10 @@
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A404" s="3" t="s">
+      <c r="A404" t="s">
         <v>1954</v>
       </c>
-      <c r="B404" s="3" t="s">
+      <c r="B404" t="s">
         <v>1955</v>
       </c>
       <c r="C404" s="3" t="s">
@@ -23435,10 +23437,10 @@
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A405" s="3" t="s">
+      <c r="A405" t="s">
         <v>1956</v>
       </c>
-      <c r="B405" s="3" t="s">
+      <c r="B405" t="s">
         <v>1957</v>
       </c>
       <c r="C405" s="3" t="s">
@@ -23446,530 +23448,530 @@
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A406" s="3" t="s">
+      <c r="A406" t="s">
         <v>1958</v>
       </c>
-      <c r="B406" s="3" t="s">
+      <c r="B406" t="s">
         <v>1959</v>
       </c>
-      <c r="C406" s="3" t="s">
+      <c r="C406" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A407" s="3" t="s">
+      <c r="A407" t="s">
         <v>1960</v>
       </c>
-      <c r="B407" s="3" t="s">
+      <c r="B407" t="s">
         <v>1961</v>
       </c>
-      <c r="C407" s="3" t="s">
+      <c r="C407" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A408" s="3" t="s">
+      <c r="A408" t="s">
         <v>657</v>
       </c>
-      <c r="B408" s="3" t="s">
+      <c r="B408" t="s">
         <v>658</v>
       </c>
-      <c r="C408" s="3" t="s">
+      <c r="C408" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" s="3" t="s">
+      <c r="A409" t="s">
         <v>1962</v>
       </c>
-      <c r="B409" s="3" t="s">
+      <c r="B409" t="s">
         <v>1963</v>
       </c>
-      <c r="C409" s="3" t="s">
+      <c r="C409" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A410" s="3" t="s">
+      <c r="A410" t="s">
         <v>1964</v>
       </c>
-      <c r="B410" s="3" t="s">
+      <c r="B410" t="s">
         <v>1965</v>
       </c>
-      <c r="C410" s="3" t="s">
+      <c r="C410" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411" s="3" t="s">
+      <c r="A411" t="s">
         <v>919</v>
       </c>
-      <c r="B411" s="3" t="s">
+      <c r="B411" t="s">
         <v>920</v>
       </c>
-      <c r="C411" s="3" t="s">
+      <c r="C411" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A412" s="3" t="s">
+      <c r="A412" t="s">
         <v>1966</v>
       </c>
-      <c r="B412" s="3" t="s">
+      <c r="B412" t="s">
         <v>1967</v>
       </c>
-      <c r="C412" s="3" t="s">
+      <c r="C412" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A413" s="3" t="s">
+      <c r="A413" t="s">
         <v>994</v>
       </c>
-      <c r="B413" s="3" t="s">
+      <c r="B413" t="s">
         <v>995</v>
       </c>
-      <c r="C413" s="3" t="s">
+      <c r="C413" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A414" s="3" t="s">
+      <c r="A414" t="s">
         <v>650</v>
       </c>
-      <c r="B414" s="3" t="s">
+      <c r="B414" t="s">
         <v>1347</v>
       </c>
-      <c r="C414" s="3" t="s">
+      <c r="C414" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415" s="3" t="s">
+      <c r="A415" t="s">
         <v>1968</v>
       </c>
-      <c r="B415" s="3" t="s">
+      <c r="B415" t="s">
         <v>1969</v>
       </c>
-      <c r="C415" s="3" t="s">
+      <c r="C415" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A416" s="3" t="s">
+      <c r="A416" t="s">
         <v>1970</v>
       </c>
-      <c r="B416" s="3" t="s">
+      <c r="B416" t="s">
         <v>1971</v>
       </c>
-      <c r="C416" s="3" t="s">
+      <c r="C416" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417" s="3" t="s">
+      <c r="A417" t="s">
         <v>1972</v>
       </c>
-      <c r="B417" s="3" t="s">
+      <c r="B417" t="s">
         <v>1973</v>
       </c>
-      <c r="C417" s="3" t="s">
+      <c r="C417" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A418" s="3" t="s">
+      <c r="A418" t="s">
         <v>1974</v>
       </c>
-      <c r="B418" s="3" t="s">
+      <c r="B418" t="s">
         <v>1975</v>
       </c>
-      <c r="C418" s="3" t="s">
+      <c r="C418" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A419" s="3" t="s">
+      <c r="A419" t="s">
         <v>202</v>
       </c>
-      <c r="B419" s="3" t="s">
+      <c r="B419" t="s">
         <v>203</v>
       </c>
-      <c r="C419" s="3" t="s">
+      <c r="C419" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A420" s="3" t="s">
+      <c r="A420" t="s">
         <v>1976</v>
       </c>
-      <c r="B420" s="3" t="s">
+      <c r="B420" t="s">
         <v>1977</v>
       </c>
-      <c r="C420" s="3" t="s">
+      <c r="C420" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A421" s="3" t="s">
+      <c r="A421" t="s">
         <v>646</v>
       </c>
-      <c r="B421" s="3" t="s">
+      <c r="B421" t="s">
         <v>647</v>
       </c>
-      <c r="C421" s="3" t="s">
+      <c r="C421" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A422" s="3" t="s">
+      <c r="A422" t="s">
         <v>233</v>
       </c>
-      <c r="B422" s="3" t="s">
+      <c r="B422" t="s">
         <v>234</v>
       </c>
-      <c r="C422" s="3" t="s">
+      <c r="C422" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A423" s="3" t="s">
+      <c r="A423" t="s">
         <v>441</v>
       </c>
-      <c r="B423" s="3" t="s">
+      <c r="B423" t="s">
         <v>442</v>
       </c>
-      <c r="C423" s="3" t="s">
+      <c r="C423" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A424" s="3" t="s">
+      <c r="A424" t="s">
         <v>841</v>
       </c>
-      <c r="B424" s="3" t="s">
+      <c r="B424" t="s">
         <v>842</v>
       </c>
-      <c r="C424" s="3" t="s">
+      <c r="C424" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A425" s="3" t="s">
+      <c r="A425" t="s">
         <v>1978</v>
       </c>
-      <c r="B425" s="3" t="s">
+      <c r="B425" t="s">
         <v>1979</v>
       </c>
-      <c r="C425" s="3" t="s">
+      <c r="C425" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A426" s="3" t="s">
+      <c r="A426" t="s">
         <v>972</v>
       </c>
-      <c r="B426" s="3" t="s">
+      <c r="B426" t="s">
         <v>973</v>
       </c>
-      <c r="C426" s="3" t="s">
+      <c r="C426" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A427" s="3" t="s">
+      <c r="A427" t="s">
         <v>1980</v>
       </c>
-      <c r="B427" s="3" t="s">
+      <c r="B427" t="s">
         <v>1981</v>
       </c>
-      <c r="C427" s="3" t="s">
+      <c r="C427" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A428" s="3" t="s">
+      <c r="A428" t="s">
         <v>1074</v>
       </c>
-      <c r="B428" s="3" t="s">
+      <c r="B428" t="s">
         <v>1075</v>
       </c>
-      <c r="C428" s="3" t="s">
+      <c r="C428" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A429" s="3" t="s">
+      <c r="A429" t="s">
         <v>669</v>
       </c>
-      <c r="B429" s="3" t="s">
+      <c r="B429" t="s">
         <v>1348</v>
       </c>
-      <c r="C429" s="3" t="s">
+      <c r="C429" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A430" s="3" t="s">
+      <c r="A430" t="s">
         <v>1982</v>
       </c>
-      <c r="B430" s="3" t="s">
+      <c r="B430" t="s">
         <v>1983</v>
       </c>
-      <c r="C430" s="3" t="s">
+      <c r="C430" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A431" s="3" t="s">
+      <c r="A431" t="s">
         <v>1984</v>
       </c>
-      <c r="B431" s="3" t="s">
+      <c r="B431" t="s">
         <v>1985</v>
       </c>
-      <c r="C431" s="3" t="s">
+      <c r="C431" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A432" s="3" t="s">
+      <c r="A432" t="s">
         <v>1051</v>
       </c>
-      <c r="B432" s="3" t="s">
+      <c r="B432" t="s">
         <v>1052</v>
       </c>
-      <c r="C432" s="3" t="s">
+      <c r="C432" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A433" s="3" t="s">
+      <c r="A433" t="s">
         <v>656</v>
       </c>
-      <c r="B433" s="3" t="s">
+      <c r="B433" t="s">
         <v>1349</v>
       </c>
-      <c r="C433" s="3" t="s">
+      <c r="C433" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A434" s="3" t="s">
+      <c r="A434" t="s">
         <v>1986</v>
       </c>
-      <c r="B434" s="3" t="s">
+      <c r="B434" t="s">
         <v>1987</v>
       </c>
-      <c r="C434" s="3" t="s">
+      <c r="C434" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A435" s="3" t="s">
+      <c r="A435" t="s">
         <v>1049</v>
       </c>
-      <c r="B435" s="3" t="s">
+      <c r="B435" t="s">
         <v>1050</v>
       </c>
-      <c r="C435" s="3" t="s">
+      <c r="C435" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A436" s="3" t="s">
+      <c r="A436" t="s">
         <v>1988</v>
       </c>
-      <c r="B436" s="3" t="s">
+      <c r="B436" t="s">
         <v>1989</v>
       </c>
-      <c r="C436" s="3" t="s">
+      <c r="C436" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A437" s="3" t="s">
+      <c r="A437" t="s">
         <v>1990</v>
       </c>
-      <c r="B437" s="3" t="s">
+      <c r="B437" t="s">
         <v>1991</v>
       </c>
-      <c r="C437" s="3" t="s">
+      <c r="C437" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A438" s="3" t="s">
+      <c r="A438" t="s">
         <v>1992</v>
       </c>
-      <c r="B438" s="3" t="s">
+      <c r="B438" t="s">
         <v>1993</v>
       </c>
-      <c r="C438" s="3" t="s">
+      <c r="C438" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A439" s="3" t="s">
+      <c r="A439" t="s">
         <v>483</v>
       </c>
-      <c r="B439" s="3" t="s">
+      <c r="B439" t="s">
         <v>484</v>
       </c>
-      <c r="C439" s="3" t="s">
+      <c r="C439" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A440" s="3" t="s">
+      <c r="A440" t="s">
         <v>1994</v>
       </c>
-      <c r="B440" s="3" t="s">
+      <c r="B440" t="s">
         <v>1995</v>
       </c>
-      <c r="C440" s="3" t="s">
+      <c r="C440" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A441" s="3" t="s">
+      <c r="A441" t="s">
         <v>1996</v>
       </c>
-      <c r="B441" s="3" t="s">
+      <c r="B441" t="s">
         <v>1997</v>
       </c>
-      <c r="C441" s="3" t="s">
+      <c r="C441" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A442" s="3" t="s">
+      <c r="A442" t="s">
         <v>1998</v>
       </c>
-      <c r="B442" s="3" t="s">
+      <c r="B442" t="s">
         <v>1999</v>
       </c>
-      <c r="C442" s="3" t="s">
+      <c r="C442" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A443" s="3" t="s">
+      <c r="A443" t="s">
         <v>2000</v>
       </c>
-      <c r="B443" s="3" t="s">
+      <c r="B443" t="s">
         <v>2001</v>
       </c>
-      <c r="C443" s="3" t="s">
+      <c r="C443" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A444" s="3" t="s">
+      <c r="A444" t="s">
         <v>2002</v>
       </c>
-      <c r="B444" s="3" t="s">
+      <c r="B444" t="s">
         <v>2003</v>
       </c>
-      <c r="C444" s="3" t="s">
+      <c r="C444" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A445" s="3" t="s">
+      <c r="A445" t="s">
         <v>2004</v>
       </c>
-      <c r="B445" s="3" t="s">
+      <c r="B445" t="s">
         <v>2005</v>
       </c>
-      <c r="C445" s="3" t="s">
+      <c r="C445" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A446" s="3" t="s">
+      <c r="A446" t="s">
         <v>2006</v>
       </c>
-      <c r="B446" s="3" t="s">
+      <c r="B446" t="s">
         <v>2007</v>
       </c>
-      <c r="C446" s="3" t="s">
+      <c r="C446" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A447" s="3" t="s">
+      <c r="A447" t="s">
         <v>243</v>
       </c>
-      <c r="B447" s="3" t="s">
+      <c r="B447" t="s">
         <v>244</v>
       </c>
-      <c r="C447" s="3" t="s">
+      <c r="C447" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A448" s="3" t="s">
+      <c r="A448" t="s">
         <v>636</v>
       </c>
-      <c r="B448" s="3" t="s">
+      <c r="B448" t="s">
         <v>637</v>
       </c>
-      <c r="C448" s="3" t="s">
+      <c r="C448" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A449" s="3" t="s">
+      <c r="A449" t="s">
         <v>655</v>
       </c>
-      <c r="B449" s="3" t="s">
+      <c r="B449" t="s">
         <v>1350</v>
       </c>
-      <c r="C449" s="3" t="s">
+      <c r="C449" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A450" s="3" t="s">
+      <c r="A450" t="s">
         <v>653</v>
       </c>
-      <c r="B450" s="3" t="s">
+      <c r="B450" t="s">
         <v>654</v>
       </c>
-      <c r="C450" s="3" t="s">
+      <c r="C450" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A451" s="3" t="s">
+      <c r="A451" t="s">
         <v>1187</v>
       </c>
-      <c r="B451" s="3" t="s">
+      <c r="B451" t="s">
         <v>1351</v>
       </c>
-      <c r="C451" s="3" t="s">
+      <c r="C451" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A452" s="3" t="s">
+      <c r="A452" t="s">
         <v>485</v>
       </c>
-      <c r="B452" s="3" t="s">
+      <c r="B452" t="s">
         <v>486</v>
       </c>
-      <c r="C452" s="3" t="s">
+      <c r="C452" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A453" s="3" t="s">
+      <c r="A453" t="s">
         <v>1289</v>
       </c>
-      <c r="B453" s="3" t="s">
+      <c r="B453" t="s">
         <v>1290</v>
       </c>
-      <c r="C453" s="3" t="s">
+      <c r="C453" t="s">
         <v>4</v>
       </c>
     </row>
@@ -23980,7 +23982,7 @@
       <c r="B454" t="s">
         <v>488</v>
       </c>
-      <c r="C454" s="3" t="s">
+      <c r="C454" t="s">
         <v>4</v>
       </c>
     </row>
@@ -23991,7 +23993,7 @@
       <c r="B455" t="s">
         <v>2009</v>
       </c>
-      <c r="C455" s="3" t="s">
+      <c r="C455" t="s">
         <v>4</v>
       </c>
     </row>
@@ -24002,7 +24004,7 @@
       <c r="B456" t="s">
         <v>2011</v>
       </c>
-      <c r="C456" s="3" t="s">
+      <c r="C456" t="s">
         <v>4</v>
       </c>
     </row>
@@ -24304,640 +24306,640 @@
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A484" t="s">
+      <c r="A484" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B484" t="s">
+      <c r="B484" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C484" t="s">
+      <c r="C484" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A485" t="s">
+      <c r="A485" s="3" t="s">
         <v>2052</v>
       </c>
-      <c r="B485" t="s">
+      <c r="B485" s="3" t="s">
         <v>2053</v>
       </c>
-      <c r="C485" t="s">
+      <c r="C485" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A486" t="s">
+      <c r="A486" s="3" t="s">
         <v>2054</v>
       </c>
-      <c r="B486" t="s">
+      <c r="B486" s="3" t="s">
         <v>2055</v>
       </c>
-      <c r="C486" t="s">
+      <c r="C486" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A487" t="s">
+      <c r="A487" s="3" t="s">
         <v>2056</v>
       </c>
-      <c r="B487" t="s">
+      <c r="B487" s="3" t="s">
         <v>2057</v>
       </c>
-      <c r="C487" t="s">
+      <c r="C487" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A488" t="s">
+      <c r="A488" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B488" t="s">
+      <c r="B488" s="3" t="s">
         <v>1354</v>
       </c>
-      <c r="C488" t="s">
+      <c r="C488" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A489" t="s">
+      <c r="A489" s="3" t="s">
         <v>2058</v>
       </c>
-      <c r="B489" t="s">
+      <c r="B489" s="3" t="s">
         <v>2059</v>
       </c>
-      <c r="C489" t="s">
+      <c r="C489" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A490" t="s">
+      <c r="A490" s="3" t="s">
         <v>2060</v>
       </c>
-      <c r="B490" t="s">
+      <c r="B490" s="3" t="s">
         <v>2061</v>
       </c>
-      <c r="C490" t="s">
+      <c r="C490" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A491" t="s">
+      <c r="A491" s="3" t="s">
         <v>2062</v>
       </c>
-      <c r="B491" t="s">
+      <c r="B491" s="3" t="s">
         <v>2063</v>
       </c>
-      <c r="C491" t="s">
+      <c r="C491" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A492" t="s">
+      <c r="A492" s="3" t="s">
         <v>2064</v>
       </c>
-      <c r="B492" t="s">
+      <c r="B492" s="3" t="s">
         <v>2065</v>
       </c>
-      <c r="C492" t="s">
+      <c r="C492" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A493" t="s">
+      <c r="A493" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="B493" t="s">
+      <c r="B493" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="C493" t="s">
+      <c r="C493" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A494" t="s">
+      <c r="A494" s="3" t="s">
         <v>2066</v>
       </c>
-      <c r="B494" t="s">
+      <c r="B494" s="3" t="s">
         <v>2067</v>
       </c>
-      <c r="C494" t="s">
+      <c r="C494" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A495" t="s">
+      <c r="A495" s="3" t="s">
         <v>2068</v>
       </c>
-      <c r="B495" t="s">
+      <c r="B495" s="3" t="s">
         <v>2069</v>
       </c>
-      <c r="C495" t="s">
+      <c r="C495" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A496" t="s">
+      <c r="A496" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B496" t="s">
+      <c r="B496" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C496" t="s">
+      <c r="C496" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A497" t="s">
+      <c r="A497" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B497" t="s">
+      <c r="B497" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C497" t="s">
+      <c r="C497" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A498" t="s">
+      <c r="A498" s="3" t="s">
         <v>2070</v>
       </c>
-      <c r="B498" t="s">
+      <c r="B498" s="3" t="s">
         <v>2071</v>
       </c>
-      <c r="C498" t="s">
+      <c r="C498" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A499" t="s">
+      <c r="A499" s="3" t="s">
         <v>2072</v>
       </c>
-      <c r="B499" t="s">
+      <c r="B499" s="3" t="s">
         <v>2073</v>
       </c>
-      <c r="C499" t="s">
+      <c r="C499" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A500" t="s">
+      <c r="A500" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="B500" t="s">
+      <c r="B500" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="C500" t="s">
+      <c r="C500" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A501" t="s">
+      <c r="A501" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="B501" t="s">
+      <c r="B501" s="3" t="s">
         <v>1356</v>
       </c>
-      <c r="C501" t="s">
+      <c r="C501" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A502" t="s">
+      <c r="A502" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="B502" t="s">
+      <c r="B502" s="3" t="s">
         <v>1357</v>
       </c>
-      <c r="C502" t="s">
+      <c r="C502" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A503" t="s">
+      <c r="A503" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B503" t="s">
+      <c r="B503" s="3" t="s">
         <v>1358</v>
       </c>
-      <c r="C503" t="s">
+      <c r="C503" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A504" t="s">
+      <c r="A504" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="B504" t="s">
+      <c r="B504" s="3" t="s">
         <v>1359</v>
       </c>
-      <c r="C504" t="s">
+      <c r="C504" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A505" t="s">
+      <c r="A505" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B505" t="s">
+      <c r="B505" s="3" t="s">
         <v>1360</v>
       </c>
-      <c r="C505" t="s">
+      <c r="C505" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A506" t="s">
+      <c r="A506" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="B506" t="s">
+      <c r="B506" s="3" t="s">
         <v>1361</v>
       </c>
-      <c r="C506" t="s">
+      <c r="C506" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A507" t="s">
+      <c r="A507" s="3" t="s">
         <v>2074</v>
       </c>
-      <c r="B507" t="s">
+      <c r="B507" s="3" t="s">
         <v>2075</v>
       </c>
-      <c r="C507" t="s">
+      <c r="C507" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A508" t="s">
+      <c r="A508" s="3" t="s">
         <v>2076</v>
       </c>
-      <c r="B508" t="s">
+      <c r="B508" s="3" t="s">
         <v>2077</v>
       </c>
-      <c r="C508" t="s">
+      <c r="C508" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A509" t="s">
+      <c r="A509" s="3" t="s">
         <v>2078</v>
       </c>
-      <c r="B509" t="s">
+      <c r="B509" s="3" t="s">
         <v>2079</v>
       </c>
-      <c r="C509" t="s">
+      <c r="C509" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A510" t="s">
+      <c r="A510" s="3" t="s">
         <v>2080</v>
       </c>
-      <c r="B510" t="s">
+      <c r="B510" s="3" t="s">
         <v>2081</v>
       </c>
-      <c r="C510" t="s">
+      <c r="C510" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A511" t="s">
+      <c r="A511" s="3" t="s">
         <v>2082</v>
       </c>
-      <c r="B511" t="s">
+      <c r="B511" s="3" t="s">
         <v>2083</v>
       </c>
-      <c r="C511" t="s">
+      <c r="C511" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A512" t="s">
+      <c r="A512" s="3" t="s">
         <v>2084</v>
       </c>
-      <c r="B512" t="s">
+      <c r="B512" s="3" t="s">
         <v>2085</v>
       </c>
-      <c r="C512" t="s">
+      <c r="C512" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A513" t="s">
+      <c r="A513" s="3" t="s">
         <v>2086</v>
       </c>
-      <c r="B513" t="s">
+      <c r="B513" s="3" t="s">
         <v>2087</v>
       </c>
-      <c r="C513" t="s">
+      <c r="C513" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A514" t="s">
+      <c r="A514" s="3" t="s">
         <v>2088</v>
       </c>
-      <c r="B514" t="s">
+      <c r="B514" s="3" t="s">
         <v>2089</v>
       </c>
-      <c r="C514" t="s">
+      <c r="C514" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A515" t="s">
+      <c r="A515" s="3" t="s">
         <v>2090</v>
       </c>
-      <c r="B515" t="s">
+      <c r="B515" s="3" t="s">
         <v>2091</v>
       </c>
-      <c r="C515" t="s">
+      <c r="C515" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A516" t="s">
+      <c r="A516" s="3" t="s">
         <v>2092</v>
       </c>
-      <c r="B516" t="s">
+      <c r="B516" s="3" t="s">
         <v>2093</v>
       </c>
-      <c r="C516" t="s">
+      <c r="C516" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A517" t="s">
+      <c r="A517" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="B517" t="s">
+      <c r="B517" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="C517" t="s">
+      <c r="C517" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A518" t="s">
+      <c r="A518" s="3" t="s">
         <v>2094</v>
       </c>
-      <c r="B518" t="s">
+      <c r="B518" s="3" t="s">
         <v>2095</v>
       </c>
-      <c r="C518" t="s">
+      <c r="C518" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A519" t="s">
+      <c r="A519" s="3" t="s">
         <v>2096</v>
       </c>
-      <c r="B519" t="s">
+      <c r="B519" s="3" t="s">
         <v>2097</v>
       </c>
-      <c r="C519" t="s">
+      <c r="C519" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A520" t="s">
+      <c r="A520" s="3" t="s">
         <v>2098</v>
       </c>
-      <c r="B520" t="s">
+      <c r="B520" s="3" t="s">
         <v>2099</v>
       </c>
-      <c r="C520" t="s">
+      <c r="C520" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A521" t="s">
+      <c r="A521" s="3" t="s">
         <v>2100</v>
       </c>
-      <c r="B521" t="s">
+      <c r="B521" s="3" t="s">
         <v>2101</v>
       </c>
-      <c r="C521" t="s">
+      <c r="C521" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A522" t="s">
+      <c r="A522" s="3" t="s">
         <v>2102</v>
       </c>
-      <c r="B522" t="s">
+      <c r="B522" s="3" t="s">
         <v>2103</v>
       </c>
-      <c r="C522" t="s">
+      <c r="C522" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A523" t="s">
+      <c r="A523" s="3" t="s">
         <v>2104</v>
       </c>
-      <c r="B523" t="s">
+      <c r="B523" s="3" t="s">
         <v>2105</v>
       </c>
-      <c r="C523" t="s">
+      <c r="C523" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A524" t="s">
+      <c r="A524" s="3" t="s">
         <v>2106</v>
       </c>
-      <c r="B524" t="s">
+      <c r="B524" s="3" t="s">
         <v>2107</v>
       </c>
-      <c r="C524" t="s">
+      <c r="C524" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A525" t="s">
+      <c r="A525" s="3" t="s">
         <v>2108</v>
       </c>
-      <c r="B525" t="s">
+      <c r="B525" s="3" t="s">
         <v>2109</v>
       </c>
-      <c r="C525" t="s">
+      <c r="C525" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A526" t="s">
+      <c r="A526" s="3" t="s">
         <v>2110</v>
       </c>
-      <c r="B526" t="s">
+      <c r="B526" s="3" t="s">
         <v>2111</v>
       </c>
-      <c r="C526" t="s">
+      <c r="C526" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A527" t="s">
+      <c r="A527" s="3" t="s">
         <v>2112</v>
       </c>
-      <c r="B527" t="s">
+      <c r="B527" s="3" t="s">
         <v>2113</v>
       </c>
-      <c r="C527" t="s">
+      <c r="C527" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A528" t="s">
+      <c r="A528" s="3" t="s">
         <v>2114</v>
       </c>
-      <c r="B528" t="s">
+      <c r="B528" s="3" t="s">
         <v>2115</v>
       </c>
-      <c r="C528" t="s">
+      <c r="C528" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A529" t="s">
+      <c r="A529" s="3" t="s">
         <v>2116</v>
       </c>
-      <c r="B529" t="s">
+      <c r="B529" s="3" t="s">
         <v>2117</v>
       </c>
-      <c r="C529" t="s">
+      <c r="C529" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A530" t="s">
+      <c r="A530" s="3" t="s">
         <v>2118</v>
       </c>
-      <c r="B530" t="s">
+      <c r="B530" s="3" t="s">
         <v>2119</v>
       </c>
-      <c r="C530" t="s">
+      <c r="C530" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A531" t="s">
+      <c r="A531" s="3" t="s">
         <v>2120</v>
       </c>
-      <c r="B531" t="s">
+      <c r="B531" s="3" t="s">
         <v>2121</v>
       </c>
-      <c r="C531" t="s">
+      <c r="C531" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A532" t="s">
+      <c r="A532" s="3" t="s">
         <v>2122</v>
       </c>
-      <c r="B532" t="s">
+      <c r="B532" s="3" t="s">
         <v>2123</v>
       </c>
-      <c r="C532" t="s">
+      <c r="C532" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A533" t="s">
+      <c r="A533" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="B533" t="s">
+      <c r="B533" s="3" t="s">
         <v>1362</v>
       </c>
-      <c r="C533" t="s">
+      <c r="C533" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A534" t="s">
+      <c r="A534" s="3" t="s">
         <v>2124</v>
       </c>
-      <c r="B534" t="s">
+      <c r="B534" s="3" t="s">
         <v>2125</v>
       </c>
-      <c r="C534" t="s">
+      <c r="C534" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A535" t="s">
+      <c r="A535" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="B535" t="s">
+      <c r="B535" s="3" t="s">
         <v>1363</v>
       </c>
-      <c r="C535" t="s">
+      <c r="C535" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A536" t="s">
+      <c r="A536" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="B536" t="s">
+      <c r="B536" s="3" t="s">
         <v>1364</v>
       </c>
-      <c r="C536" t="s">
+      <c r="C536" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A537" t="s">
+      <c r="A537" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="B537" t="s">
+      <c r="B537" s="3" t="s">
         <v>1365</v>
       </c>
-      <c r="C537" t="s">
+      <c r="C537" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A538" t="s">
+      <c r="A538" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="B538" t="s">
+      <c r="B538" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="C538" t="s">
+      <c r="C538" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A539" t="s">
+      <c r="A539" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="B539" t="s">
+      <c r="B539" s="3" t="s">
         <v>1367</v>
       </c>
-      <c r="C539" t="s">
+      <c r="C539" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A540" t="s">
+      <c r="A540" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="B540" t="s">
+      <c r="B540" s="3" t="s">
         <v>1368</v>
       </c>
-      <c r="C540" t="s">
+      <c r="C540" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A541" t="s">
+      <c r="A541" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="B541" t="s">
+      <c r="B541" s="3" t="s">
         <v>1369</v>
       </c>
-      <c r="C541" t="s">
+      <c r="C541" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -37757,1168 +37759,1168 @@
       </c>
     </row>
     <row r="1707" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1707" s="3" t="s">
+      <c r="A1707" t="s">
         <v>729</v>
       </c>
-      <c r="B1707" s="3" t="s">
+      <c r="B1707" t="s">
         <v>730</v>
       </c>
-      <c r="C1707" s="3" t="s">
+      <c r="C1707" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="1708" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1708" s="3" t="s">
+      <c r="A1708" t="s">
         <v>3886</v>
       </c>
-      <c r="B1708" s="3" t="s">
+      <c r="B1708" t="s">
         <v>3887</v>
       </c>
-      <c r="C1708" s="3" t="s">
+      <c r="C1708" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1709" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1709" s="3" t="s">
+      <c r="A1709" t="s">
         <v>1032</v>
       </c>
-      <c r="B1709" s="3" t="s">
+      <c r="B1709" t="s">
         <v>1474</v>
       </c>
-      <c r="C1709" s="3" t="s">
+      <c r="C1709" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1710" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1710" s="3" t="s">
+      <c r="A1710" t="s">
         <v>3888</v>
       </c>
-      <c r="B1710" s="3" t="s">
+      <c r="B1710" t="s">
         <v>3889</v>
       </c>
-      <c r="C1710" s="3" t="s">
+      <c r="C1710" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1711" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1711" s="3" t="s">
+      <c r="A1711" t="s">
         <v>1259</v>
       </c>
-      <c r="B1711" s="3" t="s">
+      <c r="B1711" t="s">
         <v>1475</v>
       </c>
-      <c r="C1711" s="3" t="s">
+      <c r="C1711" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1712" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1712" s="3" t="s">
+      <c r="A1712" t="s">
         <v>3890</v>
       </c>
-      <c r="B1712" s="3" t="s">
+      <c r="B1712" t="s">
         <v>3891</v>
       </c>
-      <c r="C1712" s="3" t="s">
+      <c r="C1712" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1713" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1713" s="3" t="s">
+      <c r="A1713" t="s">
         <v>3892</v>
       </c>
-      <c r="B1713" s="3" t="s">
+      <c r="B1713" t="s">
         <v>3893</v>
       </c>
-      <c r="C1713" s="3" t="s">
+      <c r="C1713" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1714" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1714" s="3" t="s">
+      <c r="A1714" t="s">
         <v>3894</v>
       </c>
-      <c r="B1714" s="3" t="s">
+      <c r="B1714" t="s">
         <v>3895</v>
       </c>
-      <c r="C1714" s="3" t="s">
+      <c r="C1714" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1715" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1715" s="3" t="s">
+      <c r="A1715" t="s">
         <v>3896</v>
       </c>
-      <c r="B1715" s="3" t="s">
+      <c r="B1715" t="s">
         <v>3897</v>
       </c>
-      <c r="C1715" s="3" t="s">
+      <c r="C1715" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1716" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1716" s="3" t="s">
+      <c r="A1716" t="s">
         <v>3898</v>
       </c>
-      <c r="B1716" s="3" t="s">
+      <c r="B1716" t="s">
         <v>3899</v>
       </c>
-      <c r="C1716" s="3" t="s">
+      <c r="C1716" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1717" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1717" s="3" t="s">
+      <c r="A1717" t="s">
         <v>3900</v>
       </c>
-      <c r="B1717" s="3" t="s">
+      <c r="B1717" t="s">
         <v>3901</v>
       </c>
-      <c r="C1717" s="3" t="s">
+      <c r="C1717" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1718" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1718" s="3" t="s">
+      <c r="A1718" t="s">
         <v>3902</v>
       </c>
-      <c r="B1718" s="3" t="s">
+      <c r="B1718" t="s">
         <v>3903</v>
       </c>
-      <c r="C1718" s="3" t="s">
+      <c r="C1718" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1719" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1719" s="3" t="s">
+      <c r="A1719" t="s">
         <v>999</v>
       </c>
-      <c r="B1719" s="3" t="s">
+      <c r="B1719" t="s">
         <v>1000</v>
       </c>
-      <c r="C1719" s="3" t="s">
+      <c r="C1719" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1720" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1720" s="3" t="s">
+      <c r="A1720" t="s">
         <v>3904</v>
       </c>
-      <c r="B1720" s="3" t="s">
+      <c r="B1720" t="s">
         <v>3905</v>
       </c>
-      <c r="C1720" s="3" t="s">
+      <c r="C1720" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1721" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1721" s="3" t="s">
+      <c r="A1721" t="s">
         <v>3906</v>
       </c>
-      <c r="B1721" s="3" t="s">
+      <c r="B1721" t="s">
         <v>3907</v>
       </c>
-      <c r="C1721" s="3" t="s">
+      <c r="C1721" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1722" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1722" s="3" t="s">
+      <c r="A1722" t="s">
         <v>3908</v>
       </c>
-      <c r="B1722" s="3" t="s">
+      <c r="B1722" t="s">
         <v>3909</v>
       </c>
-      <c r="C1722" s="3" t="s">
+      <c r="C1722" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1723" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1723" s="3" t="s">
+      <c r="A1723" t="s">
         <v>3910</v>
       </c>
-      <c r="B1723" s="3" t="s">
+      <c r="B1723" t="s">
         <v>3911</v>
       </c>
-      <c r="C1723" s="3" t="s">
+      <c r="C1723" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1724" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1724" s="3" t="s">
+      <c r="A1724" t="s">
         <v>3912</v>
       </c>
-      <c r="B1724" s="3" t="s">
+      <c r="B1724" t="s">
         <v>3913</v>
       </c>
-      <c r="C1724" s="3" t="s">
+      <c r="C1724" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1725" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1725" s="3" t="s">
+      <c r="A1725" t="s">
         <v>3914</v>
       </c>
-      <c r="B1725" s="3" t="s">
+      <c r="B1725" t="s">
         <v>3915</v>
       </c>
-      <c r="C1725" s="3" t="s">
+      <c r="C1725" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1726" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1726" s="3" t="s">
+      <c r="A1726" t="s">
         <v>810</v>
       </c>
-      <c r="B1726" s="3" t="s">
+      <c r="B1726" t="s">
         <v>811</v>
       </c>
-      <c r="C1726" s="3" t="s">
+      <c r="C1726" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1727" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1727" s="3" t="s">
+      <c r="A1727" t="s">
         <v>3916</v>
       </c>
-      <c r="B1727" s="3" t="s">
+      <c r="B1727" t="s">
         <v>3917</v>
       </c>
-      <c r="C1727" s="3" t="s">
+      <c r="C1727" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1728" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1728" s="3" t="s">
+      <c r="A1728" t="s">
         <v>3918</v>
       </c>
-      <c r="B1728" s="3" t="s">
+      <c r="B1728" t="s">
         <v>3919</v>
       </c>
-      <c r="C1728" s="3" t="s">
+      <c r="C1728" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1729" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1729" s="3" t="s">
+      <c r="A1729" t="s">
         <v>3920</v>
       </c>
-      <c r="B1729" s="3" t="s">
+      <c r="B1729" t="s">
         <v>3921</v>
       </c>
-      <c r="C1729" s="3" t="s">
+      <c r="C1729" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1730" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1730" s="3" t="s">
+      <c r="A1730" t="s">
         <v>3922</v>
       </c>
-      <c r="B1730" s="3" t="s">
+      <c r="B1730" t="s">
         <v>3923</v>
       </c>
-      <c r="C1730" s="3" t="s">
+      <c r="C1730" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1731" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1731" s="3" t="s">
+      <c r="A1731" t="s">
         <v>3924</v>
       </c>
-      <c r="B1731" s="3" t="s">
+      <c r="B1731" t="s">
         <v>3925</v>
       </c>
-      <c r="C1731" s="3" t="s">
+      <c r="C1731" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1732" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1732" s="3" t="s">
+      <c r="A1732" t="s">
         <v>3926</v>
       </c>
-      <c r="B1732" s="3" t="s">
+      <c r="B1732" t="s">
         <v>3927</v>
       </c>
-      <c r="C1732" s="3" t="s">
+      <c r="C1732" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1733" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1733" s="3" t="s">
+      <c r="A1733" t="s">
         <v>3928</v>
       </c>
-      <c r="B1733" s="3" t="s">
+      <c r="B1733" t="s">
         <v>3929</v>
       </c>
-      <c r="C1733" s="3" t="s">
+      <c r="C1733" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="1734" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1734" s="3" t="s">
+      <c r="A1734" t="s">
         <v>3930</v>
       </c>
-      <c r="B1734" s="3" t="s">
+      <c r="B1734" t="s">
         <v>3931</v>
       </c>
-      <c r="C1734" s="3" t="s">
+      <c r="C1734" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="1735" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1735" s="3" t="s">
+      <c r="A1735" t="s">
         <v>3932</v>
       </c>
-      <c r="B1735" s="3" t="s">
+      <c r="B1735" t="s">
         <v>3933</v>
       </c>
-      <c r="C1735" s="3" t="s">
+      <c r="C1735" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="1736" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1736" s="3" t="s">
+      <c r="A1736" t="s">
         <v>3934</v>
       </c>
-      <c r="B1736" s="3" t="s">
+      <c r="B1736" t="s">
         <v>3935</v>
       </c>
-      <c r="C1736" s="3" t="s">
+      <c r="C1736" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="1737" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1737" s="3" t="s">
+      <c r="A1737" t="s">
         <v>3936</v>
       </c>
-      <c r="B1737" s="3" t="s">
+      <c r="B1737" t="s">
         <v>3937</v>
       </c>
-      <c r="C1737" s="3" t="s">
+      <c r="C1737" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="1738" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1738" s="3" t="s">
+      <c r="A1738" t="s">
         <v>996</v>
       </c>
-      <c r="B1738" s="3" t="s">
+      <c r="B1738" t="s">
         <v>997</v>
       </c>
-      <c r="C1738" s="3" t="s">
+      <c r="C1738" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="1739" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1739" s="3" t="s">
+      <c r="A1739" t="s">
         <v>3938</v>
       </c>
-      <c r="B1739" s="3" t="s">
+      <c r="B1739" t="s">
         <v>3939</v>
       </c>
-      <c r="C1739" s="3" t="s">
+      <c r="C1739" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="1740" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1740" s="3" t="s">
+      <c r="A1740" t="s">
         <v>3940</v>
       </c>
-      <c r="B1740" s="3" t="s">
+      <c r="B1740" t="s">
         <v>3941</v>
       </c>
-      <c r="C1740" s="3" t="s">
+      <c r="C1740" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="1741" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1741" s="3" t="s">
+      <c r="A1741" t="s">
         <v>998</v>
       </c>
-      <c r="B1741" s="3" t="s">
+      <c r="B1741" t="s">
         <v>1476</v>
       </c>
-      <c r="C1741" s="3" t="s">
+      <c r="C1741" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="1742" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1742" s="3" t="s">
+      <c r="A1742" t="s">
         <v>3942</v>
       </c>
-      <c r="B1742" s="3" t="s">
+      <c r="B1742" t="s">
         <v>3943</v>
       </c>
-      <c r="C1742" s="3" t="s">
+      <c r="C1742" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="1743" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1743" s="3" t="s">
+      <c r="A1743" t="s">
         <v>3944</v>
       </c>
-      <c r="B1743" s="3" t="s">
+      <c r="B1743" t="s">
         <v>3945</v>
       </c>
-      <c r="C1743" s="3" t="s">
+      <c r="C1743" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="1744" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1744" s="3" t="s">
+      <c r="A1744" t="s">
         <v>3946</v>
       </c>
-      <c r="B1744" s="3" t="s">
+      <c r="B1744" t="s">
         <v>3947</v>
       </c>
-      <c r="C1744" s="3" t="s">
+      <c r="C1744" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="1745" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1745" s="3" t="s">
+      <c r="A1745" t="s">
         <v>3948</v>
       </c>
-      <c r="B1745" s="3" t="s">
+      <c r="B1745" t="s">
         <v>3949</v>
       </c>
-      <c r="C1745" s="3" t="s">
+      <c r="C1745" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="1746" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1746" s="3" t="s">
+      <c r="A1746" t="s">
         <v>3950</v>
       </c>
-      <c r="B1746" s="3" t="s">
+      <c r="B1746" t="s">
         <v>3951</v>
       </c>
-      <c r="C1746" s="3" t="s">
+      <c r="C1746" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="1747" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1747" s="3" t="s">
+      <c r="A1747" t="s">
         <v>787</v>
       </c>
-      <c r="B1747" s="3" t="s">
+      <c r="B1747" t="s">
         <v>1477</v>
       </c>
-      <c r="C1747" s="3" t="s">
+      <c r="C1747" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="1748" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1748" s="3" t="s">
+      <c r="A1748" t="s">
         <v>1117</v>
       </c>
-      <c r="B1748" s="3" t="s">
+      <c r="B1748" t="s">
         <v>1478</v>
       </c>
-      <c r="C1748" s="3" t="s">
+      <c r="C1748" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="1749" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1749" s="3" t="s">
+      <c r="A1749" t="s">
         <v>3952</v>
       </c>
-      <c r="B1749" s="3" t="s">
+      <c r="B1749" t="s">
         <v>3953</v>
       </c>
-      <c r="C1749" s="3" t="s">
+      <c r="C1749" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1750" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1750" s="3" t="s">
+      <c r="A1750" t="s">
         <v>141</v>
       </c>
-      <c r="B1750" s="3" t="s">
+      <c r="B1750" t="s">
         <v>142</v>
       </c>
-      <c r="C1750" s="3" t="s">
+      <c r="C1750" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1751" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1751" s="3" t="s">
+      <c r="A1751" t="s">
         <v>706</v>
       </c>
-      <c r="B1751" s="3" t="s">
+      <c r="B1751" t="s">
         <v>707</v>
       </c>
-      <c r="C1751" s="3" t="s">
+      <c r="C1751" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1752" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1752" s="3" t="s">
+      <c r="A1752" t="s">
         <v>3954</v>
       </c>
-      <c r="B1752" s="3" t="s">
+      <c r="B1752" t="s">
         <v>3955</v>
       </c>
-      <c r="C1752" s="3" t="s">
+      <c r="C1752" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1753" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1753" s="3" t="s">
+      <c r="A1753" t="s">
         <v>3956</v>
       </c>
-      <c r="B1753" s="3" t="s">
+      <c r="B1753" t="s">
         <v>3957</v>
       </c>
-      <c r="C1753" s="3" t="s">
+      <c r="C1753" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1754" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1754" s="3" t="s">
+      <c r="A1754" t="s">
         <v>3958</v>
       </c>
-      <c r="B1754" s="3" t="s">
+      <c r="B1754" t="s">
         <v>3959</v>
       </c>
-      <c r="C1754" s="3" t="s">
+      <c r="C1754" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="1755" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1755" s="3" t="s">
+      <c r="A1755" t="s">
         <v>1015</v>
       </c>
-      <c r="B1755" s="3" t="s">
+      <c r="B1755" t="s">
         <v>1479</v>
       </c>
-      <c r="C1755" s="3" t="s">
+      <c r="C1755" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="1756" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1756" s="3" t="s">
+      <c r="A1756" t="s">
         <v>3960</v>
       </c>
-      <c r="B1756" s="3" t="s">
+      <c r="B1756" t="s">
         <v>3961</v>
       </c>
-      <c r="C1756" s="3" t="s">
+      <c r="C1756" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1757" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1757" s="3" t="s">
+      <c r="A1757" t="s">
         <v>3962</v>
       </c>
-      <c r="B1757" s="3" t="s">
+      <c r="B1757" t="s">
         <v>3963</v>
       </c>
-      <c r="C1757" s="3" t="s">
+      <c r="C1757" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1758" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1758" s="3" t="s">
+      <c r="A1758" t="s">
         <v>3964</v>
       </c>
-      <c r="B1758" s="3" t="s">
+      <c r="B1758" t="s">
         <v>3965</v>
       </c>
-      <c r="C1758" s="3" t="s">
+      <c r="C1758" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1759" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1759" s="3" t="s">
+      <c r="A1759" t="s">
         <v>3966</v>
       </c>
-      <c r="B1759" s="3" t="s">
+      <c r="B1759" t="s">
         <v>3967</v>
       </c>
-      <c r="C1759" s="3" t="s">
+      <c r="C1759" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1760" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1760" s="3" t="s">
+      <c r="A1760" t="s">
         <v>3968</v>
       </c>
-      <c r="B1760" s="3" t="s">
+      <c r="B1760" t="s">
         <v>3969</v>
       </c>
-      <c r="C1760" s="3" t="s">
+      <c r="C1760" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1761" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1761" s="3" t="s">
+      <c r="A1761" t="s">
         <v>3970</v>
       </c>
-      <c r="B1761" s="3" t="s">
+      <c r="B1761" t="s">
         <v>3971</v>
       </c>
-      <c r="C1761" s="3" t="s">
+      <c r="C1761" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1762" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1762" s="3" t="s">
+      <c r="A1762" t="s">
         <v>3972</v>
       </c>
-      <c r="B1762" s="3" t="s">
+      <c r="B1762" t="s">
         <v>3973</v>
       </c>
-      <c r="C1762" s="3" t="s">
+      <c r="C1762" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1763" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1763" s="3" t="s">
+      <c r="A1763" t="s">
         <v>3974</v>
       </c>
-      <c r="B1763" s="3" t="s">
+      <c r="B1763" t="s">
         <v>3975</v>
       </c>
-      <c r="C1763" s="3" t="s">
+      <c r="C1763" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1764" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1764" s="3" t="s">
+      <c r="A1764" t="s">
         <v>3976</v>
       </c>
-      <c r="B1764" s="3" t="s">
+      <c r="B1764" t="s">
         <v>3977</v>
       </c>
-      <c r="C1764" s="3" t="s">
+      <c r="C1764" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1765" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1765" s="3" t="s">
+      <c r="A1765" t="s">
         <v>3978</v>
       </c>
-      <c r="B1765" s="3" t="s">
+      <c r="B1765" t="s">
         <v>3979</v>
       </c>
-      <c r="C1765" s="3" t="s">
+      <c r="C1765" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1766" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1766" s="3" t="s">
+      <c r="A1766" t="s">
         <v>3980</v>
       </c>
-      <c r="B1766" s="3" t="s">
+      <c r="B1766" t="s">
         <v>3981</v>
       </c>
-      <c r="C1766" s="3" t="s">
+      <c r="C1766" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1767" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1767" s="3" t="s">
+      <c r="A1767" t="s">
         <v>3982</v>
       </c>
-      <c r="B1767" s="3" t="s">
+      <c r="B1767" t="s">
         <v>3983</v>
       </c>
-      <c r="C1767" s="3" t="s">
+      <c r="C1767" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1768" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1768" s="3" t="s">
+      <c r="A1768" t="s">
         <v>3984</v>
       </c>
-      <c r="B1768" s="3" t="s">
+      <c r="B1768" t="s">
         <v>3985</v>
       </c>
-      <c r="C1768" s="3" t="s">
+      <c r="C1768" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1769" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1769" s="3" t="s">
+      <c r="A1769" t="s">
         <v>3986</v>
       </c>
-      <c r="B1769" s="3" t="s">
+      <c r="B1769" t="s">
         <v>3987</v>
       </c>
-      <c r="C1769" s="3" t="s">
+      <c r="C1769" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1770" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1770" s="3" t="s">
+      <c r="A1770" t="s">
         <v>3988</v>
       </c>
-      <c r="B1770" s="3" t="s">
+      <c r="B1770" t="s">
         <v>3989</v>
       </c>
-      <c r="C1770" s="3" t="s">
+      <c r="C1770" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1771" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1771" s="3" t="s">
+      <c r="A1771" t="s">
         <v>3990</v>
       </c>
-      <c r="B1771" s="3" t="s">
+      <c r="B1771" t="s">
         <v>3991</v>
       </c>
-      <c r="C1771" s="3" t="s">
+      <c r="C1771" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1772" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1772" s="3" t="s">
+      <c r="A1772" t="s">
         <v>3992</v>
       </c>
-      <c r="B1772" s="3" t="s">
+      <c r="B1772" t="s">
         <v>3993</v>
       </c>
-      <c r="C1772" s="3" t="s">
+      <c r="C1772" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1773" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1773" s="3" t="s">
+      <c r="A1773" t="s">
         <v>3994</v>
       </c>
-      <c r="B1773" s="3" t="s">
+      <c r="B1773" t="s">
         <v>3995</v>
       </c>
-      <c r="C1773" s="3" t="s">
+      <c r="C1773" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1774" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1774" s="3" t="s">
+      <c r="A1774" t="s">
         <v>3996</v>
       </c>
-      <c r="B1774" s="3" t="s">
+      <c r="B1774" t="s">
         <v>3997</v>
       </c>
-      <c r="C1774" s="3" t="s">
+      <c r="C1774" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1775" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1775" s="3" t="s">
+      <c r="A1775" t="s">
         <v>3998</v>
       </c>
-      <c r="B1775" s="3" t="s">
+      <c r="B1775" t="s">
         <v>3999</v>
       </c>
-      <c r="C1775" s="3" t="s">
+      <c r="C1775" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1776" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1776" s="3" t="s">
+      <c r="A1776" t="s">
         <v>4000</v>
       </c>
-      <c r="B1776" s="3" t="s">
+      <c r="B1776" t="s">
         <v>4001</v>
       </c>
-      <c r="C1776" s="3" t="s">
+      <c r="C1776" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1777" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1777" s="3" t="s">
+      <c r="A1777" t="s">
         <v>4002</v>
       </c>
-      <c r="B1777" s="3" t="s">
+      <c r="B1777" t="s">
         <v>4003</v>
       </c>
-      <c r="C1777" s="3" t="s">
+      <c r="C1777" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1778" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1778" s="3" t="s">
+      <c r="A1778" t="s">
         <v>4004</v>
       </c>
-      <c r="B1778" s="3" t="s">
+      <c r="B1778" t="s">
         <v>4005</v>
       </c>
-      <c r="C1778" s="3" t="s">
+      <c r="C1778" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1779" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1779" s="3" t="s">
+      <c r="A1779" t="s">
         <v>4006</v>
       </c>
-      <c r="B1779" s="3" t="s">
+      <c r="B1779" t="s">
         <v>4007</v>
       </c>
-      <c r="C1779" s="3" t="s">
+      <c r="C1779" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1780" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1780" s="3" t="s">
+      <c r="A1780" t="s">
         <v>4008</v>
       </c>
-      <c r="B1780" s="3" t="s">
+      <c r="B1780" t="s">
         <v>4009</v>
       </c>
-      <c r="C1780" s="3" t="s">
+      <c r="C1780" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1781" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1781" s="3" t="s">
+      <c r="A1781" t="s">
         <v>4010</v>
       </c>
-      <c r="B1781" s="3" t="s">
+      <c r="B1781" t="s">
         <v>4011</v>
       </c>
-      <c r="C1781" s="3" t="s">
+      <c r="C1781" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1782" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1782" s="3" t="s">
+      <c r="A1782" t="s">
         <v>4012</v>
       </c>
-      <c r="B1782" s="3" t="s">
+      <c r="B1782" t="s">
         <v>4013</v>
       </c>
-      <c r="C1782" s="3" t="s">
+      <c r="C1782" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1783" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1783" s="3" t="s">
+      <c r="A1783" t="s">
         <v>4014</v>
       </c>
-      <c r="B1783" s="3" t="s">
+      <c r="B1783" t="s">
         <v>4015</v>
       </c>
-      <c r="C1783" s="3" t="s">
+      <c r="C1783" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1784" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1784" s="3" t="s">
+      <c r="A1784" t="s">
         <v>4016</v>
       </c>
-      <c r="B1784" s="3" t="s">
+      <c r="B1784" t="s">
         <v>4017</v>
       </c>
-      <c r="C1784" s="3" t="s">
+      <c r="C1784" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1785" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1785" s="3" t="s">
+      <c r="A1785" t="s">
         <v>4018</v>
       </c>
-      <c r="B1785" s="3" t="s">
+      <c r="B1785" t="s">
         <v>4019</v>
       </c>
-      <c r="C1785" s="3" t="s">
+      <c r="C1785" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1786" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1786" s="3" t="s">
+      <c r="A1786" t="s">
         <v>4020</v>
       </c>
-      <c r="B1786" s="3" t="s">
+      <c r="B1786" t="s">
         <v>4021</v>
       </c>
-      <c r="C1786" s="3" t="s">
+      <c r="C1786" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1787" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1787" s="3" t="s">
+      <c r="A1787" t="s">
         <v>4022</v>
       </c>
-      <c r="B1787" s="3" t="s">
+      <c r="B1787" t="s">
         <v>4023</v>
       </c>
-      <c r="C1787" s="3" t="s">
+      <c r="C1787" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1788" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1788" s="3" t="s">
+      <c r="A1788" t="s">
         <v>384</v>
       </c>
-      <c r="B1788" s="3" t="s">
+      <c r="B1788" t="s">
         <v>1480</v>
       </c>
-      <c r="C1788" s="3" t="s">
+      <c r="C1788" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1789" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1789" s="3" t="s">
+      <c r="A1789" t="s">
         <v>4024</v>
       </c>
-      <c r="B1789" s="3" t="s">
+      <c r="B1789" t="s">
         <v>4025</v>
       </c>
-      <c r="C1789" s="3" t="s">
+      <c r="C1789" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1790" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1790" s="3" t="s">
+      <c r="A1790" t="s">
         <v>4026</v>
       </c>
-      <c r="B1790" s="3" t="s">
+      <c r="B1790" t="s">
         <v>4027</v>
       </c>
-      <c r="C1790" s="3" t="s">
+      <c r="C1790" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1791" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1791" s="3" t="s">
+      <c r="A1791" t="s">
         <v>4028</v>
       </c>
-      <c r="B1791" s="3" t="s">
+      <c r="B1791" t="s">
         <v>4029</v>
       </c>
-      <c r="C1791" s="3" t="s">
+      <c r="C1791" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1792" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1792" s="3" t="s">
+      <c r="A1792" t="s">
         <v>4030</v>
       </c>
-      <c r="B1792" s="3" t="s">
+      <c r="B1792" t="s">
         <v>4031</v>
       </c>
-      <c r="C1792" s="3" t="s">
+      <c r="C1792" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1793" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1793" s="3" t="s">
+      <c r="A1793" t="s">
         <v>4032</v>
       </c>
-      <c r="B1793" s="3" t="s">
+      <c r="B1793" t="s">
         <v>4033</v>
       </c>
-      <c r="C1793" s="3" t="s">
+      <c r="C1793" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1794" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1794" s="3" t="s">
+      <c r="A1794" t="s">
         <v>5852</v>
       </c>
-      <c r="B1794" s="3" t="s">
+      <c r="B1794" t="s">
         <v>5853</v>
       </c>
-      <c r="C1794" s="3" t="s">
+      <c r="C1794" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1795" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1795" s="3" t="s">
+      <c r="A1795" t="s">
         <v>4034</v>
       </c>
-      <c r="B1795" s="3" t="s">
+      <c r="B1795" t="s">
         <v>4035</v>
       </c>
-      <c r="C1795" s="3" t="s">
+      <c r="C1795" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1796" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1796" s="3" t="s">
+      <c r="A1796" t="s">
         <v>4036</v>
       </c>
-      <c r="B1796" s="3" t="s">
+      <c r="B1796" t="s">
         <v>4037</v>
       </c>
-      <c r="C1796" s="3" t="s">
+      <c r="C1796" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1797" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1797" s="3" t="s">
+      <c r="A1797" t="s">
         <v>4038</v>
       </c>
-      <c r="B1797" s="3" t="s">
+      <c r="B1797" t="s">
         <v>4039</v>
       </c>
-      <c r="C1797" s="3" t="s">
+      <c r="C1797" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1798" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1798" s="3" t="s">
+      <c r="A1798" t="s">
         <v>5854</v>
       </c>
-      <c r="B1798" s="3" t="s">
+      <c r="B1798" t="s">
         <v>5855</v>
       </c>
-      <c r="C1798" s="3" t="s">
+      <c r="C1798" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1799" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1799" s="3" t="s">
+      <c r="A1799" t="s">
         <v>5856</v>
       </c>
-      <c r="B1799" s="3" t="s">
+      <c r="B1799" t="s">
         <v>5857</v>
       </c>
-      <c r="C1799" s="3" t="s">
+      <c r="C1799" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1800" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1800" s="3" t="s">
+      <c r="A1800" t="s">
         <v>5858</v>
       </c>
-      <c r="B1800" s="3" t="s">
+      <c r="B1800" t="s">
         <v>5859</v>
       </c>
-      <c r="C1800" s="3" t="s">
+      <c r="C1800" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1801" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1801" s="3" t="s">
+      <c r="A1801" t="s">
         <v>4040</v>
       </c>
-      <c r="B1801" s="3" t="s">
+      <c r="B1801" t="s">
         <v>4041</v>
       </c>
-      <c r="C1801" s="3" t="s">
+      <c r="C1801" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1802" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1802" s="3" t="s">
+      <c r="A1802" t="s">
         <v>4042</v>
       </c>
-      <c r="B1802" s="3" t="s">
+      <c r="B1802" t="s">
         <v>4043</v>
       </c>
-      <c r="C1802" s="3" t="s">
+      <c r="C1802" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1803" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1803" s="3" t="s">
+      <c r="A1803" t="s">
         <v>4044</v>
       </c>
-      <c r="B1803" s="3" t="s">
+      <c r="B1803" t="s">
         <v>4045</v>
       </c>
-      <c r="C1803" s="3" t="s">
+      <c r="C1803" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1804" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1804" s="3" t="s">
+      <c r="A1804" t="s">
         <v>4046</v>
       </c>
-      <c r="B1804" s="3" t="s">
+      <c r="B1804" t="s">
         <v>4047</v>
       </c>
-      <c r="C1804" s="3" t="s">
+      <c r="C1804" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1805" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1805" s="3" t="s">
+      <c r="A1805" t="s">
         <v>4048</v>
       </c>
-      <c r="B1805" s="3" t="s">
+      <c r="B1805" t="s">
         <v>4049</v>
       </c>
-      <c r="C1805" s="3" t="s">
+      <c r="C1805" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1806" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1806" s="3" t="s">
+      <c r="A1806" t="s">
         <v>4050</v>
       </c>
-      <c r="B1806" s="3" t="s">
+      <c r="B1806" t="s">
         <v>4051</v>
       </c>
-      <c r="C1806" s="3" t="s">
+      <c r="C1806" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1807" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1807" s="3" t="s">
+      <c r="A1807" t="s">
         <v>4052</v>
       </c>
-      <c r="B1807" s="3" t="s">
+      <c r="B1807" t="s">
         <v>4053</v>
       </c>
-      <c r="C1807" s="3" t="s">
+      <c r="C1807" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1808" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1808" s="3" t="s">
+      <c r="A1808" t="s">
         <v>4054</v>
       </c>
-      <c r="B1808" s="3" t="s">
+      <c r="B1808" t="s">
         <v>4055</v>
       </c>
-      <c r="C1808" s="3" t="s">
+      <c r="C1808" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1809" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1809" s="3" t="s">
+      <c r="A1809" t="s">
         <v>4056</v>
       </c>
-      <c r="B1809" s="3" t="s">
+      <c r="B1809" t="s">
         <v>4057</v>
       </c>
-      <c r="C1809" s="3" t="s">
+      <c r="C1809" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1810" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1810" s="3" t="s">
+      <c r="A1810" t="s">
         <v>4058</v>
       </c>
-      <c r="B1810" s="3" t="s">
+      <c r="B1810" t="s">
         <v>4059</v>
       </c>
-      <c r="C1810" s="3" t="s">
+      <c r="C1810" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1811" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1811" s="3" t="s">
+      <c r="A1811" t="s">
         <v>4060</v>
       </c>
-      <c r="B1811" s="3" t="s">
+      <c r="B1811" t="s">
         <v>4061</v>
       </c>
-      <c r="C1811" s="3" t="s">
+      <c r="C1811" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="1812" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1812" s="3" t="s">
+      <c r="A1812" t="s">
         <v>378</v>
       </c>
-      <c r="B1812" s="3" t="s">
+      <c r="B1812" t="s">
         <v>379</v>
       </c>
-      <c r="C1812" s="3" t="s">
+      <c r="C1812" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Insumos.xlsx
+++ b/Insumos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osborne1-my.sharepoint.com/personal/matheus_almeida_osborne_com_br/Documents/Área de Trabalho/Formulario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{B1C9BEE0-D8AB-41A6-9B3F-41E286CEEEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{972606F8-7CCF-49D1-AD91-103817DD5FB6}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{B1C9BEE0-D8AB-41A6-9B3F-41E286CEEEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3932308C-D2F6-4350-A487-BAF673E2E6C2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0464B66-1327-441A-BC0B-79C1075B3A87}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8873" uniqueCount="5923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8876" uniqueCount="5925">
   <si>
     <t>Unidade</t>
   </si>
@@ -17808,6 +17808,12 @@
   </si>
   <si>
     <t>VÁLVULA DE DESCARGA DOCOLBASE 1 1/4" REF. 01051300 DOCOL</t>
+  </si>
+  <si>
+    <t>CANTONEIRA DE ALUMINIO COM ABAS DESIGUAIS.</t>
+  </si>
+  <si>
+    <t>P2.01.0052</t>
   </si>
 </sst>
 </file>
@@ -18220,10 +18226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32D2B19-46D2-47DB-8479-E6FC0B3CCBCE}">
-  <dimension ref="A1:E2957"/>
+  <dimension ref="A1:E2958"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A2945" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2959" sqref="C2959"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51519,6 +51525,17 @@
         <v>23</v>
       </c>
     </row>
+    <row r="2958" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2958" t="s">
+        <v>5924</v>
+      </c>
+      <c r="B2958" t="s">
+        <v>5923</v>
+      </c>
+      <c r="C2958" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A793 A3715:A1048576 A919:A2931">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
